--- a/3_Модуль/ПРАКТИКА/3.8 Практическая работа.xlsx
+++ b/3_Модуль/ПРАКТИКА/3.8 Практическая работа.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaga\Desktop\Курсы и выступления\Курс Excel SKillbox\ДЗ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\Excel\3_Модуль\ПРАКТИКА\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770A0BBB-2964-4966-9B9F-B52D6302D3C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AC5A9B-EB3B-4074-8C27-2F5080B6292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание" sheetId="2" r:id="rId1"/>
@@ -18,17 +18,6 @@
     <sheet name="Пользовательские форматы" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -102,7 +91,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="172" formatCode="[Black]\+0%;[Red]\-0%"/>
+    <numFmt numFmtId="174" formatCode="000000"/>
+    <numFmt numFmtId="178" formatCode="dd\ mmm\ yyyy\ ddd"/>
+    <numFmt numFmtId="183" formatCode="[Green][&gt;700]0;[Red][&lt;200]0;[Black]0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +130,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -148,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -165,26 +170,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Заголовок 1" xfId="4" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Процентный" xfId="6" builtinId="5"/>
     <cellStyle name="Процентный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Финансовый" xfId="5" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,10 +473,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3943350" cy="4004310"/>
     <xdr:sp macro="" textlink="">
@@ -462,7 +492,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6781800" y="76200"/>
+          <a:off x="8896350" y="1630680"/>
           <a:ext cx="3943350" cy="4004310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -696,9 +726,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -736,9 +766,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -771,26 +801,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -823,26 +836,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1021,13 +1017,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.15625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1040,257 +1036,304 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.15625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>12000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>13364</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <f>C2/B2-1</f>
         <v>0.11366666666666658</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>20000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>20463</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <f t="shared" ref="D3:D16" si="0">C3/B3-1</f>
         <v>2.3150000000000004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>16000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>16489</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <f t="shared" si="0"/>
         <v>3.0562500000000048E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>14000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>13941</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>-4.214285714285726E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>12000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>14891</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>0.24091666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>16000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>15096</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>-5.6499999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>12000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>12609</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>5.0750000000000073E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>14000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>16097</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>0.14978571428571419</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>14000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>13198</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>-5.7285714285714273E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>14000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>12267</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>-0.12378571428571428</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>16000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>15920</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>-5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>18000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>19662</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>9.2333333333333378E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>18000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>18602</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
         <v>3.3444444444444388E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>18000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>18599</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>3.3277777777777739E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>16000</v>
       </c>
-      <c r="C16">
-        <v>16640</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000036E-2</v>
+      <c r="C16" s="7">
+        <v>15640</v>
+      </c>
+      <c r="D16" s="8">
+        <f>C16/B16-1</f>
+        <v>-2.2499999999999964E-2</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C16">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{27EC59B8-D293-432D-A991-5CA772956E53}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color rgb="FFFFFF00"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{27EC59B8-D293-432D-A991-5CA772956E53}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1298,18 +1341,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4BCDA9-F001-4527-ABED-136DED00192B}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.7890625" customWidth="1"/>
-    <col min="3" max="3" width="13.89453125" customWidth="1"/>
-    <col min="4" max="5" width="8.3125" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="5" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1320,170 +1364,170 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>61737</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="10">
         <v>44536</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="11">
         <v>753</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>266</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>43901</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>844</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>21819</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="10">
         <v>44255</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>256875</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="10">
         <v>44455</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>967</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>965</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="10">
         <v>43943</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <v>197</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>266</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="10">
         <v>44171</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <v>985</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>32314</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="10">
         <v>44547</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>183541</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="10">
         <v>44381</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>886641</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="10">
         <v>44462</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>56891</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="10">
         <v>44218</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="11">
         <v>502</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>624</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="10">
         <v>43982</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <v>981</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>991</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="10">
         <v>44476</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>55918</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="10">
         <v>44081</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>682676</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="10">
         <v>44396</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <v>718</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>371586</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="10">
         <v>44332</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="11">
         <v>535</v>
       </c>
     </row>
